--- a/data/long_bre/P23_9-Estudios-long_bre.xlsx
+++ b/data/long_bre/P23_9-Estudios-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,24</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,59%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-14,13%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-21,38%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 9,95</t>
+          <t>-15,86; 8,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 2,46</t>
+          <t>-20,89; 1,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-38,54; 54,82</t>
+          <t>-10,52; 17,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,4; 7,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-47,91; 45,96</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-44,91; 4,84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-26,76; 87,65</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,66%</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-10,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-2,19%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 8,75</t>
+          <t>-25,03; 8,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 15,45</t>
+          <t>-4,01; 15,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 26,47</t>
+          <t>-14,48; 16,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 53,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-45,24; 23,22</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-9,1; 55,4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-29,6; 57,91</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26,3%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-6,46%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 18,96</t>
+          <t>-4,72; 23,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 10,9</t>
+          <t>-5,9; 11,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 75,94</t>
+          <t>-30,32; 12,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 55,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-12,05; 107,27</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-19,67; 55,8</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-59,99; 72,02</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,43%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,55; -2,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 8,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,67; -7,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 34,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,53%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-26,89%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,63%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 14,08</t>
+          <t>-16,2; -0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 2,69</t>
+          <t>-3,8; 8,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 40,1</t>
+          <t>-6,79; 10,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 6,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-47,98; 1,36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-11,66; 35,29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-17,02; 34,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>9,79</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>-7,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24,56%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-6,28%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-16,16%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 8,16</t>
+          <t>1,63; 18,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 7,38</t>
+          <t>-10,03; 3,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 31,66</t>
+          <t>-14,96; 1,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 37,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 55,41</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-19,68; 8,61</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-30,1; 4,62</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,68</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-30,11%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-6,98%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26,6%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 8,47</t>
+          <t>-10,89; 5,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,28; -4,1</t>
+          <t>-5,33; 6,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 48,35</t>
+          <t>-1,74; 12,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-44,27; -13,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-29,0; 21,28</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-19,12; 30,65</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 75,98</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 10,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 12,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 29,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 33,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>-10,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18,26%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-30,05%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>20,29%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 3,29</t>
+          <t>-4,6; 10,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 11,43</t>
+          <t>-18,3; -4,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 10,2</t>
+          <t>-1,71; 13,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 56,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-18,48; 69,52</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-45,12; -13,22</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 55,49</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-12,94%</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-10,74%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,86</t>
+          <t>-5,9; 11,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 0,93</t>
+          <t>-1,92; 12,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 3,78</t>
+          <t>-4,26; 12,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 3,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-12,66; 34,51</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; 35,21</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-8,69; 32,68</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>-10,36</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-16,37%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>23,54%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-41,99%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 7,83</t>
+          <t>-14,87; 2,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 5,52</t>
+          <t>-0,34; 12,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 20,2</t>
+          <t>-19,71; -3,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 13,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-33,69; 7,1</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 61,64</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-62,05; -14,56</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1732,838 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 6,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 20,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 31,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-8,62</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-26,72%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-19,45; 2,01</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-51,91; 6,36</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-2,38</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-5,93%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-14,39; 8,68</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-31,01; 26,45</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>10,99</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>39,76%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 22,21</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 114,65</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>-4,21</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-4,17</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-16,04%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-12,51%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-9,09; 0,86</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-9,43; 0,08</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 8,81</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-30,9; 4,16</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-25,44; 0,66</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 31,91</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-4,39%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 8,96</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 5,82</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; 3,91</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 24,0</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-7,26; 14,67</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-16,28; 9,46</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>-6,5%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 5,25</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 6,69</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-9,03; 3,77</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-13,91; 17,53</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 30,61</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-30,71; 19,21</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P23_9-Estudios-long_bre.xlsx
+++ b/data/long_bre/P23_9-Estudios-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -708,7 +708,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -792,7 +792,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -964,7 +964,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1048,7 +1048,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1220,7 +1220,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1304,7 +1304,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1476,7 +1476,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
